--- a/models/predictions/ranked_students.xlsx
+++ b/models/predictions/ranked_students.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Lasso" sheetId="1" r:id="rId1"/>
-    <sheet name="Random Forest" sheetId="2" r:id="rId2"/>
+    <sheet name="Random Forest" sheetId="1" r:id="rId1"/>
+    <sheet name="Lasso" sheetId="2" r:id="rId2"/>
     <sheet name="Support Vector Machine" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -404,1649 +404,1649 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>420371</v>
+        <v>421065</v>
       </c>
       <c r="C2">
-        <v>0.161</v>
+        <v>0.1975450442479496</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>424557</v>
+        <v>419658</v>
       </c>
       <c r="C3">
-        <v>0.161</v>
+        <v>0.1700802423436024</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>420455</v>
+        <v>419841</v>
       </c>
       <c r="C4">
-        <v>0.161</v>
+        <v>0.1690903500000571</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>424849</v>
+        <v>423151</v>
       </c>
       <c r="C5">
-        <v>0.161</v>
+        <v>0.1688754696036667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>418780</v>
+        <v>348081</v>
       </c>
       <c r="C6">
-        <v>0.161</v>
+        <v>0.1680561253643278</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>421528</v>
+        <v>425961</v>
       </c>
       <c r="C7">
-        <v>0.161</v>
+        <v>0.1680158550186472</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>419202</v>
+        <v>427194</v>
       </c>
       <c r="C8">
-        <v>0.161</v>
+        <v>0.1673698957864773</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>417133</v>
+        <v>419669</v>
       </c>
       <c r="C9">
-        <v>0.161</v>
+        <v>0.1665489710120419</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>423072</v>
+        <v>392049</v>
       </c>
       <c r="C10">
-        <v>0.161</v>
+        <v>0.1657537456395358</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>427194</v>
+        <v>415458</v>
       </c>
       <c r="C11">
-        <v>0.161</v>
+        <v>0.1655577706285699</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>420701</v>
+        <v>427326</v>
       </c>
       <c r="C12">
-        <v>0.161</v>
+        <v>0.1654734164602394</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>419374</v>
+        <v>421808</v>
       </c>
       <c r="C13">
-        <v>0.161</v>
+        <v>0.1653593775189725</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>425587</v>
+        <v>417133</v>
       </c>
       <c r="C14">
-        <v>0.161</v>
+        <v>0.1652070830969742</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>424201</v>
+        <v>422360</v>
       </c>
       <c r="C15">
-        <v>0.161</v>
+        <v>0.165136972400255</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>426278</v>
       </c>
       <c r="C16">
-        <v>0.161</v>
+        <v>0.1644241126320833</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>423109</v>
+        <v>371312</v>
       </c>
       <c r="C17">
-        <v>0.161</v>
+        <v>0.1641315585601037</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>421569</v>
       </c>
       <c r="C18">
-        <v>0.161</v>
+        <v>0.1640229908092677</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>425787</v>
+        <v>422721</v>
       </c>
       <c r="C19">
-        <v>0.161</v>
+        <v>0.1639091298220589</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>424968</v>
+        <v>418852</v>
       </c>
       <c r="C20">
-        <v>0.161</v>
+        <v>0.1638755779332827</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>420088</v>
+        <v>425998</v>
       </c>
       <c r="C21">
-        <v>0.161</v>
+        <v>0.1632230739462783</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>386411</v>
+        <v>420776</v>
       </c>
       <c r="C22">
-        <v>0.161</v>
+        <v>0.1628196401937296</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>420968</v>
+        <v>425447</v>
       </c>
       <c r="C23">
-        <v>0.161</v>
+        <v>0.1627134139242442</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>420450</v>
+        <v>428138</v>
       </c>
       <c r="C24">
-        <v>0.161</v>
+        <v>0.1625132421262591</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>417520</v>
+        <v>424854</v>
       </c>
       <c r="C25">
-        <v>0.161</v>
+        <v>0.1622950166714386</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>419013</v>
+        <v>425621</v>
       </c>
       <c r="C26">
-        <v>0.161</v>
+        <v>0.1621186537587629</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>419315</v>
+        <v>423622</v>
       </c>
       <c r="C27">
-        <v>0.161</v>
+        <v>0.1615340656107165</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>422603</v>
+        <v>428538</v>
       </c>
       <c r="C28">
-        <v>0.161</v>
+        <v>0.1614545608286502</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>422113</v>
+        <v>423912</v>
       </c>
       <c r="C29">
-        <v>0.161</v>
+        <v>0.1613693924968159</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>419669</v>
+        <v>386411</v>
       </c>
       <c r="C30">
-        <v>0.161</v>
+        <v>0.1612732660244531</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>431227</v>
+        <v>417520</v>
       </c>
       <c r="C31">
-        <v>0.161</v>
+        <v>0.1610836879725231</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>371312</v>
+        <v>419836</v>
       </c>
       <c r="C32">
-        <v>0.161</v>
+        <v>0.1607779758784102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>429003</v>
+        <v>423053</v>
       </c>
       <c r="C33">
-        <v>0.161</v>
+        <v>0.1606568337941347</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>423053</v>
+        <v>422763</v>
       </c>
       <c r="C34">
-        <v>0.161</v>
+        <v>0.1606558720836525</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>421968</v>
+        <v>417649</v>
       </c>
       <c r="C35">
-        <v>0.161</v>
+        <v>0.1604119312352475</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>419836</v>
+        <v>424333</v>
       </c>
       <c r="C36">
-        <v>0.161</v>
+        <v>0.1602972008307579</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>418852</v>
+        <v>421762</v>
       </c>
       <c r="C37">
-        <v>0.161</v>
+        <v>0.1602425456458622</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>427927</v>
+        <v>418050</v>
       </c>
       <c r="C38">
-        <v>0.161</v>
+        <v>0.16022283535998</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>422881</v>
+        <v>420655</v>
       </c>
       <c r="C39">
-        <v>0.161</v>
+        <v>0.1601866873978993</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>425755</v>
+        <v>422265</v>
       </c>
       <c r="C40">
-        <v>0.161</v>
+        <v>0.1601019782101188</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>427646</v>
+        <v>424849</v>
       </c>
       <c r="C41">
-        <v>0.161</v>
+        <v>0.1600102931582919</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>416450</v>
+        <v>418236</v>
       </c>
       <c r="C42">
-        <v>0.161</v>
+        <v>0.1600053924848723</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>425621</v>
+        <v>422126</v>
       </c>
       <c r="C43">
-        <v>0.161</v>
+        <v>0.1599598834988096</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>426618</v>
+        <v>418469</v>
       </c>
       <c r="C44">
-        <v>0.161</v>
+        <v>0.1599570895257496</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>423957</v>
+        <v>420255</v>
       </c>
       <c r="C45">
-        <v>0.161</v>
+        <v>0.1598905254308547</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>420728</v>
+        <v>423957</v>
       </c>
       <c r="C46">
-        <v>0.161</v>
+        <v>0.1595702150218441</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>392049</v>
+        <v>419202</v>
       </c>
       <c r="C47">
-        <v>0.161</v>
+        <v>0.1594960319508116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>423132</v>
+        <v>427990</v>
       </c>
       <c r="C48">
-        <v>0.161</v>
+        <v>0.1594916176724007</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>422360</v>
+        <v>420450</v>
       </c>
       <c r="C49">
-        <v>0.161</v>
+        <v>0.159408733373076</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>424854</v>
+        <v>421222</v>
       </c>
       <c r="C50">
-        <v>0.161</v>
+        <v>0.1594006850434251</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>424933</v>
+        <v>422881</v>
       </c>
       <c r="C51">
-        <v>0.161</v>
+        <v>0.15915698902702</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>423912</v>
+        <v>419186</v>
       </c>
       <c r="C52">
-        <v>0.161</v>
+        <v>0.159079913235622</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>424883</v>
+        <v>423241</v>
       </c>
       <c r="C53">
-        <v>0.161</v>
+        <v>0.1589991847240416</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>428538</v>
+        <v>426618</v>
       </c>
       <c r="C54">
-        <v>0.161</v>
+        <v>0.1586195232543419</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>427990</v>
+        <v>423109</v>
       </c>
       <c r="C55">
-        <v>0.161</v>
+        <v>0.158610272370715</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>425287</v>
+        <v>419833</v>
       </c>
       <c r="C56">
-        <v>0.161</v>
+        <v>0.1585091087058632</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>422950</v>
+        <v>418780</v>
       </c>
       <c r="C57">
-        <v>0.161</v>
+        <v>0.1583597542836848</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>419383</v>
+        <v>421377</v>
       </c>
       <c r="C58">
-        <v>0.161</v>
+        <v>0.1583233084490187</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>418740</v>
+        <v>424182</v>
       </c>
       <c r="C59">
-        <v>0.161</v>
+        <v>0.1583088203962461</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>422029</v>
+        <v>428439</v>
       </c>
       <c r="C60">
-        <v>0.161</v>
+        <v>0.1582801152000484</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>420623</v>
+        <v>418048</v>
       </c>
       <c r="C61">
-        <v>0.161</v>
+        <v>0.1581963206359236</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>421808</v>
+        <v>431227</v>
       </c>
       <c r="C62">
-        <v>0.161</v>
+        <v>0.1581948871613199</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>421426</v>
+        <v>425755</v>
       </c>
       <c r="C63">
-        <v>0.161</v>
+        <v>0.1581481403224815</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>421214</v>
+        <v>426453</v>
       </c>
       <c r="C64">
-        <v>0.161</v>
+        <v>0.1576376159475004</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>415458</v>
+        <v>419573</v>
       </c>
       <c r="C65">
-        <v>0.161</v>
+        <v>0.1575388749070868</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>420230</v>
+        <v>425787</v>
       </c>
       <c r="C66">
-        <v>0.161</v>
+        <v>0.1575378499037047</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>422126</v>
+        <v>419035</v>
       </c>
       <c r="C67">
-        <v>0.161</v>
+        <v>0.157338529608974</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>418050</v>
+        <v>421860</v>
       </c>
       <c r="C68">
-        <v>0.161</v>
+        <v>0.1572553925062579</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>425961</v>
+        <v>422840</v>
       </c>
       <c r="C69">
-        <v>0.161</v>
+        <v>0.1571272951329874</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>419658</v>
+        <v>421426</v>
       </c>
       <c r="C70">
-        <v>0.161</v>
+        <v>0.1570821272396011</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>422290</v>
+        <v>421968</v>
       </c>
       <c r="C71">
-        <v>0.161</v>
+        <v>0.1569970364251914</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>424693</v>
+        <v>424600</v>
       </c>
       <c r="C72">
-        <v>0.161</v>
+        <v>0.1569468212839412</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>421065</v>
+        <v>424693</v>
       </c>
       <c r="C73">
-        <v>0.161</v>
+        <v>0.1569403978704867</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>423622</v>
+        <v>422331</v>
       </c>
       <c r="C74">
-        <v>0.161</v>
+        <v>0.1566825448436358</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>421332</v>
+        <v>422124</v>
       </c>
       <c r="C75">
-        <v>0.161</v>
+        <v>0.1566671527491898</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>423241</v>
+        <v>424557</v>
       </c>
       <c r="C76">
-        <v>0.161</v>
+        <v>0.1565610260458662</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>419893</v>
+        <v>420701</v>
       </c>
       <c r="C77">
-        <v>0.161</v>
+        <v>0.156432476852414</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>428439</v>
+        <v>423072</v>
       </c>
       <c r="C78">
-        <v>0.161</v>
+        <v>0.156327645932194</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>422953</v>
+        <v>425287</v>
       </c>
       <c r="C79">
-        <v>0.161</v>
+        <v>0.156251965496862</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>422721</v>
+        <v>424933</v>
       </c>
       <c r="C80">
-        <v>0.161</v>
+        <v>0.1562316290101546</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>431255</v>
+        <v>416450</v>
       </c>
       <c r="C81">
-        <v>0.161</v>
+        <v>0.1561739415049827</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>422084</v>
+        <v>420968</v>
       </c>
       <c r="C82">
-        <v>0.161</v>
+        <v>0.1561085820352296</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>420684</v>
+        <v>422113</v>
       </c>
       <c r="C83">
-        <v>0.161</v>
+        <v>0.1556647941322957</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>421762</v>
+        <v>419893</v>
       </c>
       <c r="C84">
-        <v>0.161</v>
+        <v>0.1556448107463229</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>424940</v>
+        <v>426386</v>
       </c>
       <c r="C85">
-        <v>0.161</v>
+        <v>0.1556334303538519</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>419186</v>
+        <v>427646</v>
       </c>
       <c r="C86">
-        <v>0.161</v>
+        <v>0.1554877644297612</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>424333</v>
+        <v>420088</v>
       </c>
       <c r="C87">
-        <v>0.161</v>
+        <v>0.1553354329346919</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>423760</v>
+        <v>419013</v>
       </c>
       <c r="C88">
-        <v>0.161</v>
+        <v>0.1552439231640083</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>419754</v>
+        <v>418458</v>
       </c>
       <c r="C89">
-        <v>0.161</v>
+        <v>0.1552265348691313</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>422763</v>
+        <v>420468</v>
       </c>
       <c r="C90">
-        <v>0.161</v>
+        <v>0.1547785998707664</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>426752</v>
+        <v>422950</v>
       </c>
       <c r="C91">
-        <v>0.161</v>
+        <v>0.1547677315776345</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>423953</v>
+        <v>418740</v>
       </c>
       <c r="C92">
-        <v>0.161</v>
+        <v>0.1547527973630284</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>418458</v>
+        <v>420371</v>
       </c>
       <c r="C93">
-        <v>0.161</v>
+        <v>0.1545360826640615</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>424088</v>
+        <v>419315</v>
       </c>
       <c r="C94">
-        <v>0.161</v>
+        <v>0.1545268094698212</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>421222</v>
+        <v>422603</v>
       </c>
       <c r="C95">
-        <v>0.161</v>
+        <v>0.1544234739218566</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>423873</v>
+        <v>424795</v>
       </c>
       <c r="C96">
-        <v>0.161</v>
+        <v>0.1542640033393416</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>418469</v>
+        <v>427058</v>
       </c>
       <c r="C97">
-        <v>0.161</v>
+        <v>0.1539265556900213</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>419573</v>
+        <v>425400</v>
       </c>
       <c r="C98">
-        <v>0.161</v>
+        <v>0.1538916469368212</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>424600</v>
+        <v>421528</v>
       </c>
       <c r="C99">
-        <v>0.161</v>
+        <v>0.1537931113478322</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>419477</v>
+        <v>424968</v>
       </c>
       <c r="C100">
-        <v>0.161</v>
+        <v>0.1537134707822859</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>417488</v>
+        <v>426342</v>
       </c>
       <c r="C101">
-        <v>0.161</v>
+        <v>0.1536956991147893</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>422840</v>
+        <v>420455</v>
       </c>
       <c r="C102">
-        <v>0.161</v>
+        <v>0.1535844659712996</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>419841</v>
+        <v>426852</v>
       </c>
       <c r="C103">
-        <v>0.161</v>
+        <v>0.1535442760204578</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>427326</v>
+        <v>417660</v>
       </c>
       <c r="C104">
-        <v>0.161</v>
+        <v>0.1533813894510667</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>428138</v>
+        <v>420215</v>
       </c>
       <c r="C105">
-        <v>0.161</v>
+        <v>0.1529306747605517</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>420215</v>
+        <v>418404</v>
       </c>
       <c r="C106">
-        <v>0.161</v>
+        <v>0.1528777286744051</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>429002</v>
+        <v>424453</v>
       </c>
       <c r="C107">
-        <v>0.161</v>
+        <v>0.1527409568732476</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>417649</v>
+        <v>424088</v>
       </c>
       <c r="C108">
-        <v>0.161</v>
+        <v>0.1524318615047194</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>348081</v>
+        <v>424883</v>
       </c>
       <c r="C109">
-        <v>0.161</v>
+        <v>0.1522292280573792</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>418404</v>
+        <v>417488</v>
       </c>
       <c r="C110">
-        <v>0.161</v>
+        <v>0.1522051599527172</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>430925</v>
+        <v>420230</v>
       </c>
       <c r="C111">
-        <v>0.161</v>
+        <v>0.1519602429274615</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>422265</v>
+        <v>423953</v>
       </c>
       <c r="C112">
-        <v>0.161</v>
+        <v>0.1518792190765257</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>427839</v>
+        <v>425587</v>
       </c>
       <c r="C113">
-        <v>0.161</v>
+        <v>0.1517365540048948</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>423250</v>
+        <v>427927</v>
       </c>
       <c r="C114">
-        <v>0.161</v>
+        <v>0.1516386265021762</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>421440</v>
+        <v>417593</v>
       </c>
       <c r="C115">
-        <v>0.161</v>
+        <v>0.1516305432918811</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>424795</v>
+        <v>422953</v>
       </c>
       <c r="C116">
-        <v>0.161</v>
+        <v>0.1516283152865988</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>420847</v>
+        <v>419477</v>
       </c>
       <c r="C117">
-        <v>0.161</v>
+        <v>0.1513505900094277</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>425447</v>
+        <v>420611</v>
       </c>
       <c r="C118">
-        <v>0.161</v>
+        <v>0.1511735354953777</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>421377</v>
+        <v>429002</v>
       </c>
       <c r="C119">
-        <v>0.161</v>
+        <v>0.1509863721997688</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>408316</v>
+        <v>423217</v>
       </c>
       <c r="C120">
-        <v>0.161</v>
+        <v>0.1509744681174941</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>417660</v>
+        <v>425559</v>
       </c>
       <c r="C121">
-        <v>0.161</v>
+        <v>0.1508532972562305</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>418048</v>
+        <v>423873</v>
       </c>
       <c r="C122">
-        <v>0.161</v>
+        <v>0.1505713064368847</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>424453</v>
+        <v>422029</v>
       </c>
       <c r="C123">
-        <v>0.161</v>
+        <v>0.1503780393973423</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>427058</v>
+        <v>423494</v>
       </c>
       <c r="C124">
-        <v>0.161</v>
+        <v>0.1503353878905142</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>417593</v>
+        <v>420728</v>
       </c>
       <c r="C125">
-        <v>0.161</v>
+        <v>0.149911045400701</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>419035</v>
+        <v>421440</v>
       </c>
       <c r="C126">
-        <v>0.161</v>
+        <v>0.1497805047478256</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>425400</v>
+        <v>418773</v>
       </c>
       <c r="C127">
-        <v>0.161</v>
+        <v>0.1497566611417885</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>425481</v>
+        <v>419383</v>
       </c>
       <c r="C128">
-        <v>0.161</v>
+        <v>0.1497059114874371</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>420468</v>
+        <v>421491</v>
       </c>
       <c r="C129">
-        <v>0.161</v>
+        <v>0.1495404899717918</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>425998</v>
+        <v>423132</v>
       </c>
       <c r="C130">
-        <v>0.161</v>
+        <v>0.1494323764161233</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>418236</v>
+        <v>421214</v>
       </c>
       <c r="C131">
-        <v>0.161</v>
+        <v>0.1491290875323702</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>426852</v>
+        <v>420684</v>
       </c>
       <c r="C132">
-        <v>0.161</v>
+        <v>0.1489029060731518</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>426386</v>
+        <v>421286</v>
       </c>
       <c r="C133">
-        <v>0.161</v>
+        <v>0.1488200073239659</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>426453</v>
+        <v>429003</v>
       </c>
       <c r="C134">
-        <v>0.161</v>
+        <v>0.1487473498380225</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>419833</v>
+        <v>424201</v>
       </c>
       <c r="C135">
-        <v>0.161</v>
+        <v>0.1486580858606038</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>422331</v>
+        <v>423760</v>
       </c>
       <c r="C136">
-        <v>0.161</v>
+        <v>0.1480320028000606</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>426342</v>
+        <v>408316</v>
       </c>
       <c r="C137">
-        <v>0.161</v>
+        <v>0.1479400667773905</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>425559</v>
+        <v>426752</v>
       </c>
       <c r="C138">
-        <v>0.161</v>
+        <v>0.147897747162675</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>418773</v>
+        <v>420623</v>
       </c>
       <c r="C139">
-        <v>0.161</v>
+        <v>0.1476908490423436</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>421860</v>
+        <v>427839</v>
       </c>
       <c r="C140">
-        <v>0.161</v>
+        <v>0.1476648857450048</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>420776</v>
+        <v>425481</v>
       </c>
       <c r="C141">
-        <v>0.161</v>
+        <v>0.1476417897341788</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>423217</v>
+        <v>430925</v>
       </c>
       <c r="C142">
-        <v>0.161</v>
+        <v>0.1475722325473804</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>423151</v>
+        <v>420847</v>
       </c>
       <c r="C143">
-        <v>0.161</v>
+        <v>0.1473017278150747</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>421491</v>
+        <v>419374</v>
       </c>
       <c r="C144">
-        <v>0.161</v>
+        <v>0.1471838718632529</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>424182</v>
+        <v>422290</v>
       </c>
       <c r="C145">
-        <v>0.161</v>
+        <v>0.147058054289343</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>422124</v>
+        <v>419754</v>
       </c>
       <c r="C146">
-        <v>0.161</v>
+        <v>0.1462358628162693</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>421286</v>
+        <v>422084</v>
       </c>
       <c r="C147">
-        <v>0.161</v>
+        <v>0.1461310215699111</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>420255</v>
+        <v>421332</v>
       </c>
       <c r="C148">
-        <v>0.161</v>
+        <v>0.1426244338409621</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>420655</v>
+        <v>431255</v>
       </c>
       <c r="C149">
-        <v>0.161</v>
+        <v>0.141923234386051</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>423494</v>
+        <v>424940</v>
       </c>
       <c r="C150">
-        <v>0.161</v>
+        <v>0.1414306371622319</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>420611</v>
+        <v>423250</v>
       </c>
       <c r="C151">
-        <v>0.161</v>
+        <v>0.1393040473251158</v>
       </c>
     </row>
   </sheetData>
@@ -2078,1649 +2078,1649 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>424933</v>
+        <v>420371</v>
       </c>
       <c r="C2">
-        <v>0.1883134509223269</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>421065</v>
+        <v>424557</v>
       </c>
       <c r="C3">
-        <v>0.1872184949810456</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>422763</v>
+        <v>420455</v>
       </c>
       <c r="C4">
-        <v>0.1871196280244501</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>418050</v>
+        <v>424849</v>
       </c>
       <c r="C5">
-        <v>0.1870038034905862</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>423053</v>
+        <v>418780</v>
       </c>
       <c r="C6">
-        <v>0.1861277077780077</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>419658</v>
+        <v>421528</v>
       </c>
       <c r="C7">
-        <v>0.1841126616477296</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>423957</v>
+        <v>419202</v>
       </c>
       <c r="C8">
-        <v>0.1826885096561297</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>420468</v>
+        <v>417133</v>
       </c>
       <c r="C9">
-        <v>0.1816503448147216</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>431227</v>
+        <v>423072</v>
       </c>
       <c r="C10">
-        <v>0.1801319909819487</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>421286</v>
+        <v>427194</v>
       </c>
       <c r="C11">
-        <v>0.1800676687746257</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>423622</v>
+        <v>420701</v>
       </c>
       <c r="C12">
-        <v>0.1796279060737263</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>418404</v>
+        <v>419374</v>
       </c>
       <c r="C13">
-        <v>0.178765609489112</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>418852</v>
+        <v>425587</v>
       </c>
       <c r="C14">
-        <v>0.1782779108285333</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>424182</v>
+        <v>424201</v>
       </c>
       <c r="C15">
-        <v>0.1781444079148638</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>425755</v>
+        <v>426278</v>
       </c>
       <c r="C16">
-        <v>0.1778878967680984</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>418236</v>
+        <v>423109</v>
       </c>
       <c r="C17">
-        <v>0.1773582703005057</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>421569</v>
       </c>
       <c r="C18">
-        <v>0.1772147800326866</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>421332</v>
+        <v>425787</v>
       </c>
       <c r="C19">
-        <v>0.1762429421822067</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>424940</v>
+        <v>424968</v>
       </c>
       <c r="C20">
-        <v>0.1747195820314818</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>423151</v>
+        <v>420088</v>
       </c>
       <c r="C21">
-        <v>0.1712191500106633</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>428138</v>
+        <v>386411</v>
       </c>
       <c r="C22">
-        <v>0.1708001250102201</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>419374</v>
+        <v>420968</v>
       </c>
       <c r="C23">
-        <v>0.1700781353100029</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>423953</v>
+        <v>420450</v>
       </c>
       <c r="C24">
-        <v>0.1691206100213622</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>420088</v>
+        <v>417520</v>
       </c>
       <c r="C25">
-        <v>0.1689457844755277</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>417520</v>
+        <v>419013</v>
       </c>
       <c r="C26">
-        <v>0.1688305438589915</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>423217</v>
+        <v>419315</v>
       </c>
       <c r="C27">
-        <v>0.1686669958750438</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>427839</v>
+        <v>422603</v>
       </c>
       <c r="C28">
-        <v>0.1685195514628652</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>421528</v>
+        <v>422113</v>
       </c>
       <c r="C29">
-        <v>0.1684047530184738</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>424854</v>
+        <v>419669</v>
       </c>
       <c r="C30">
-        <v>0.168288961465513</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>420728</v>
+        <v>431227</v>
       </c>
       <c r="C31">
-        <v>0.1682168027440961</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>348081</v>
+        <v>371312</v>
       </c>
       <c r="C32">
-        <v>0.168114801880764</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>420847</v>
+        <v>429003</v>
       </c>
       <c r="C33">
-        <v>0.1675709904351979</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>420655</v>
+        <v>423053</v>
       </c>
       <c r="C34">
-        <v>0.1674995398053485</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>421491</v>
+        <v>421968</v>
       </c>
       <c r="C35">
-        <v>0.1672743767109926</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>421440</v>
+        <v>419836</v>
       </c>
       <c r="C36">
-        <v>0.1666418946422838</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>423109</v>
+        <v>418852</v>
       </c>
       <c r="C37">
-        <v>0.1656380693840762</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>425287</v>
+        <v>427927</v>
       </c>
       <c r="C38">
-        <v>0.1646585649524248</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>420255</v>
+        <v>422881</v>
       </c>
       <c r="C39">
-        <v>0.164522922505021</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>426752</v>
+        <v>425755</v>
       </c>
       <c r="C40">
-        <v>0.164321866540762</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>421222</v>
+        <v>427646</v>
       </c>
       <c r="C41">
-        <v>0.1643209971794698</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>417649</v>
+        <v>416450</v>
       </c>
       <c r="C42">
-        <v>0.1641203466386909</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>386411</v>
+        <v>425621</v>
       </c>
       <c r="C43">
-        <v>0.1640191545224242</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>419186</v>
+        <v>426618</v>
       </c>
       <c r="C44">
-        <v>0.1638051485804039</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>426386</v>
+        <v>423957</v>
       </c>
       <c r="C45">
-        <v>0.1636519423586468</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>421762</v>
+        <v>420728</v>
       </c>
       <c r="C46">
-        <v>0.16356745418045</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>426618</v>
+        <v>392049</v>
       </c>
       <c r="C47">
-        <v>0.1635433861971903</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>422721</v>
+        <v>423132</v>
       </c>
       <c r="C48">
-        <v>0.1635278969190811</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>421808</v>
+        <v>422360</v>
       </c>
       <c r="C49">
-        <v>0.1633298237194049</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>416450</v>
+        <v>424854</v>
       </c>
       <c r="C50">
-        <v>0.1631200758501016</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>419013</v>
+        <v>424933</v>
       </c>
       <c r="C51">
-        <v>0.1630972915311949</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>421426</v>
+        <v>423912</v>
       </c>
       <c r="C52">
-        <v>0.1629542670955867</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>424088</v>
+        <v>424883</v>
       </c>
       <c r="C53">
-        <v>0.1629192707512911</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>424333</v>
+        <v>428538</v>
       </c>
       <c r="C54">
-        <v>0.1628557036530967</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>425787</v>
+        <v>427990</v>
       </c>
       <c r="C55">
-        <v>0.1628072798833924</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>419833</v>
+        <v>425287</v>
       </c>
       <c r="C56">
-        <v>0.1626706310902594</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>420611</v>
+        <v>422950</v>
       </c>
       <c r="C57">
-        <v>0.1625851811702856</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>425998</v>
+        <v>419383</v>
       </c>
       <c r="C58">
-        <v>0.1625287002635226</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>422950</v>
+        <v>418740</v>
       </c>
       <c r="C59">
-        <v>0.1625231897690456</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>418469</v>
+        <v>422029</v>
       </c>
       <c r="C60">
-        <v>0.161705420281669</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>419202</v>
+        <v>420623</v>
       </c>
       <c r="C61">
-        <v>0.1614650327595765</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>419893</v>
+        <v>421808</v>
       </c>
       <c r="C62">
-        <v>0.1612876832849406</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>423912</v>
+        <v>421426</v>
       </c>
       <c r="C63">
-        <v>0.1610942124432609</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>424795</v>
+        <v>421214</v>
       </c>
       <c r="C64">
-        <v>0.1608744330401197</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>419573</v>
+        <v>415458</v>
       </c>
       <c r="C65">
-        <v>0.1608057156561133</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>419841</v>
+        <v>420230</v>
       </c>
       <c r="C66">
-        <v>0.1601811686000556</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>419477</v>
+        <v>422126</v>
       </c>
       <c r="C67">
-        <v>0.1601077028364873</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>423132</v>
+        <v>418050</v>
       </c>
       <c r="C68">
-        <v>0.1600557702108414</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>420623</v>
+        <v>425961</v>
       </c>
       <c r="C69">
-        <v>0.1600305800457135</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>425961</v>
+        <v>419658</v>
       </c>
       <c r="C70">
-        <v>0.1600304836585607</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>420215</v>
+        <v>422290</v>
       </c>
       <c r="C71">
-        <v>0.1600296857251439</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>421860</v>
+        <v>424693</v>
       </c>
       <c r="C72">
-        <v>0.1598656624406636</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B73">
-        <v>427194</v>
+        <v>421065</v>
       </c>
       <c r="C73">
-        <v>0.1598044135949139</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>422603</v>
+        <v>423622</v>
       </c>
       <c r="C74">
-        <v>0.1596904427311384</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>425621</v>
+        <v>421332</v>
       </c>
       <c r="C75">
-        <v>0.1596880080805885</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>422113</v>
+        <v>423241</v>
       </c>
       <c r="C76">
-        <v>0.1595485863605699</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>428538</v>
+        <v>419893</v>
       </c>
       <c r="C77">
-        <v>0.1595419163282222</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>424693</v>
+        <v>428439</v>
       </c>
       <c r="C78">
-        <v>0.1594653650913861</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B79">
-        <v>420776</v>
+        <v>422953</v>
       </c>
       <c r="C79">
-        <v>0.1592918596293485</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>424600</v>
+        <v>422721</v>
       </c>
       <c r="C80">
-        <v>0.1592565734006789</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="B81">
-        <v>420371</v>
+        <v>431255</v>
       </c>
       <c r="C81">
-        <v>0.1589018248480655</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>420450</v>
+        <v>422084</v>
       </c>
       <c r="C82">
-        <v>0.158711718721488</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>415458</v>
+        <v>420684</v>
       </c>
       <c r="C83">
-        <v>0.1587008628998464</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>427990</v>
+        <v>421762</v>
       </c>
       <c r="C84">
-        <v>0.1586913527366639</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>422290</v>
+        <v>424940</v>
       </c>
       <c r="C85">
-        <v>0.1586330510049359</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>423241</v>
+        <v>419186</v>
       </c>
       <c r="C86">
-        <v>0.1586055836304268</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>425447</v>
+        <v>424333</v>
       </c>
       <c r="C87">
-        <v>0.1583150840590316</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="B88">
-        <v>426453</v>
+        <v>423760</v>
       </c>
       <c r="C88">
-        <v>0.1581477911926918</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="B89">
-        <v>426342</v>
+        <v>419754</v>
       </c>
       <c r="C89">
-        <v>0.1581075732986821</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B90">
-        <v>417133</v>
+        <v>422763</v>
       </c>
       <c r="C90">
-        <v>0.1579718390710201</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="B91">
-        <v>422953</v>
+        <v>426752</v>
       </c>
       <c r="C91">
-        <v>0.1577670831012568</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B92">
-        <v>424201</v>
+        <v>423953</v>
       </c>
       <c r="C92">
-        <v>0.157717506215377</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B93">
-        <v>419836</v>
+        <v>418458</v>
       </c>
       <c r="C93">
-        <v>0.1575780016837928</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>419035</v>
+        <v>424088</v>
       </c>
       <c r="C94">
-        <v>0.1574495787490138</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="B95">
-        <v>419669</v>
+        <v>421222</v>
       </c>
       <c r="C95">
-        <v>0.1574271573671711</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="B96">
-        <v>422840</v>
+        <v>423873</v>
       </c>
       <c r="C96">
-        <v>0.1573414268944993</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="B97">
-        <v>422029</v>
+        <v>418469</v>
       </c>
       <c r="C97">
-        <v>0.1571663647864975</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B98">
-        <v>429003</v>
+        <v>419573</v>
       </c>
       <c r="C98">
-        <v>0.157151785505005</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="B99">
-        <v>420701</v>
+        <v>424600</v>
       </c>
       <c r="C99">
-        <v>0.1571326339393551</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B100">
-        <v>422360</v>
+        <v>419477</v>
       </c>
       <c r="C100">
-        <v>0.1567528162081063</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B101">
-        <v>371312</v>
+        <v>417488</v>
       </c>
       <c r="C101">
-        <v>0.1567391860090075</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B102">
-        <v>419315</v>
+        <v>422840</v>
       </c>
       <c r="C102">
-        <v>0.1567209382817173</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B103">
-        <v>422881</v>
+        <v>419841</v>
       </c>
       <c r="C103">
-        <v>0.1565079778309371</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="B104">
-        <v>424453</v>
+        <v>427326</v>
       </c>
       <c r="C104">
-        <v>0.1564771510949277</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B105">
-        <v>428439</v>
+        <v>428138</v>
       </c>
       <c r="C105">
-        <v>0.156473595341342</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B106">
-        <v>392049</v>
+        <v>420215</v>
       </c>
       <c r="C106">
-        <v>0.1563372866865928</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B107">
-        <v>426278</v>
+        <v>429002</v>
       </c>
       <c r="C107">
-        <v>0.1562241178579226</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="B108">
-        <v>420455</v>
+        <v>417649</v>
       </c>
       <c r="C108">
-        <v>0.1561042281215189</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="B109">
-        <v>417488</v>
+        <v>348081</v>
       </c>
       <c r="C109">
-        <v>0.1559345627720348</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="B110">
-        <v>420968</v>
+        <v>418404</v>
       </c>
       <c r="C110">
-        <v>0.1558960349052727</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="B111">
-        <v>419383</v>
+        <v>430925</v>
       </c>
       <c r="C111">
-        <v>0.1556398202180583</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="B112">
-        <v>427058</v>
+        <v>422265</v>
       </c>
       <c r="C112">
-        <v>0.1554343307503856</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="B113">
-        <v>423494</v>
+        <v>427839</v>
       </c>
       <c r="C113">
-        <v>0.1553209870631116</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="B114">
-        <v>418458</v>
+        <v>423250</v>
       </c>
       <c r="C114">
-        <v>0.155280678726747</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="B115">
-        <v>423873</v>
+        <v>421440</v>
       </c>
       <c r="C115">
-        <v>0.1552098901322349</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="B116">
-        <v>419754</v>
+        <v>424795</v>
       </c>
       <c r="C116">
-        <v>0.155184436559552</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B117">
-        <v>429002</v>
+        <v>420847</v>
       </c>
       <c r="C117">
-        <v>0.1551034963425899</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="B118">
-        <v>418048</v>
+        <v>425447</v>
       </c>
       <c r="C118">
-        <v>0.1550135883056953</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="B119">
-        <v>418780</v>
+        <v>421377</v>
       </c>
       <c r="C119">
-        <v>0.1548705227436281</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B120">
-        <v>425559</v>
+        <v>408316</v>
       </c>
       <c r="C120">
-        <v>0.1548626619409736</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="B121">
-        <v>427326</v>
+        <v>417660</v>
       </c>
       <c r="C121">
-        <v>0.1546528564021392</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B122">
-        <v>425587</v>
+        <v>418048</v>
       </c>
       <c r="C122">
-        <v>0.1545852496367309</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="B123">
-        <v>424849</v>
+        <v>424453</v>
       </c>
       <c r="C123">
-        <v>0.1542773837893116</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="B124">
-        <v>422331</v>
+        <v>427058</v>
       </c>
       <c r="C124">
-        <v>0.1542630720097091</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="B125">
-        <v>421968</v>
+        <v>417593</v>
       </c>
       <c r="C125">
-        <v>0.1538361104753651</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="B126">
-        <v>425481</v>
+        <v>419035</v>
       </c>
       <c r="C126">
-        <v>0.1537144370438284</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B127">
-        <v>424557</v>
+        <v>425400</v>
       </c>
       <c r="C127">
-        <v>0.15342095061679</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="B128">
-        <v>426852</v>
+        <v>425481</v>
       </c>
       <c r="C128">
-        <v>0.1533188574714081</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="B129">
-        <v>422126</v>
+        <v>420468</v>
       </c>
       <c r="C129">
-        <v>0.1532406209566504</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>421377</v>
+        <v>425998</v>
       </c>
       <c r="C130">
-        <v>0.1529786118768395</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="B131">
-        <v>420230</v>
+        <v>418236</v>
       </c>
       <c r="C131">
-        <v>0.1528203040903729</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B132">
-        <v>421214</v>
+        <v>426852</v>
       </c>
       <c r="C132">
-        <v>0.1516862332106194</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="B133">
-        <v>422084</v>
+        <v>426386</v>
       </c>
       <c r="C133">
-        <v>0.1516656260091878</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="B134">
-        <v>417660</v>
+        <v>426453</v>
       </c>
       <c r="C134">
-        <v>0.1516124945522353</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="B135">
-        <v>427927</v>
+        <v>419833</v>
       </c>
       <c r="C135">
-        <v>0.1515860483778721</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="B136">
-        <v>427646</v>
+        <v>422331</v>
       </c>
       <c r="C136">
-        <v>0.1510943971483511</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="B137">
-        <v>423072</v>
+        <v>426342</v>
       </c>
       <c r="C137">
-        <v>0.1508544566861666</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="B138">
-        <v>423760</v>
+        <v>425559</v>
       </c>
       <c r="C138">
-        <v>0.1506908315503348</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="B139">
-        <v>417593</v>
+        <v>418773</v>
       </c>
       <c r="C139">
-        <v>0.150432030861997</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="B140">
-        <v>431255</v>
+        <v>421860</v>
       </c>
       <c r="C140">
-        <v>0.1502479095321832</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="B141">
-        <v>408316</v>
+        <v>420776</v>
       </c>
       <c r="C141">
-        <v>0.150178148249079</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="B142">
-        <v>418740</v>
+        <v>423217</v>
       </c>
       <c r="C142">
-        <v>0.149535417630058</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="B143">
-        <v>418773</v>
+        <v>423151</v>
       </c>
       <c r="C143">
-        <v>0.1495209163039402</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="B144">
-        <v>425400</v>
+        <v>421491</v>
       </c>
       <c r="C144">
-        <v>0.1493891720974817</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="B145">
-        <v>422265</v>
+        <v>424182</v>
       </c>
       <c r="C145">
-        <v>0.1489843010263856</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="B146">
-        <v>424883</v>
+        <v>422124</v>
       </c>
       <c r="C146">
-        <v>0.1474472708647903</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="B147">
-        <v>424968</v>
+        <v>421286</v>
       </c>
       <c r="C147">
-        <v>0.1468197049256698</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="B148">
-        <v>430925</v>
+        <v>420255</v>
       </c>
       <c r="C148">
-        <v>0.1459898312642016</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="B149">
-        <v>422124</v>
+        <v>420655</v>
       </c>
       <c r="C149">
-        <v>0.1454568053519776</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="B150">
-        <v>420684</v>
+        <v>423494</v>
       </c>
       <c r="C150">
-        <v>0.1453309058557658</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="B151">
-        <v>423250</v>
+        <v>420611</v>
       </c>
       <c r="C151">
-        <v>0.1446230368300286</v>
+        <v>0.1611611611611612</v>
       </c>
     </row>
   </sheetData>
@@ -3752,1649 +3752,1649 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>420371</v>
+        <v>419383</v>
       </c>
       <c r="C2">
-        <v>0.1591536354358684</v>
+        <v>0.1708232064726004</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>424557</v>
+        <v>419374</v>
       </c>
       <c r="C3">
-        <v>0.1591536354358684</v>
+        <v>0.1699012760243823</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>420455</v>
+        <v>386411</v>
       </c>
       <c r="C4">
-        <v>0.1591536354358684</v>
+        <v>0.16661401348633</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>424849</v>
+        <v>408316</v>
       </c>
       <c r="C5">
-        <v>0.1591536354358684</v>
+        <v>0.1661612106566822</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>418780</v>
+        <v>417660</v>
       </c>
       <c r="C6">
-        <v>0.1591536354358684</v>
+        <v>0.1648718602538546</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>421528</v>
+        <v>417649</v>
       </c>
       <c r="C7">
-        <v>0.1591536354358684</v>
+        <v>0.1647110811259644</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>419202</v>
+        <v>418458</v>
       </c>
       <c r="C8">
-        <v>0.1591536354358684</v>
+        <v>0.1645503836184439</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>417133</v>
+        <v>417488</v>
       </c>
       <c r="C9">
-        <v>0.1591536354358684</v>
+        <v>0.1643313497952929</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>423072</v>
+        <v>417520</v>
       </c>
       <c r="C10">
-        <v>0.1591536354358684</v>
+        <v>0.1642849497814879</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>427194</v>
+        <v>416450</v>
       </c>
       <c r="C11">
-        <v>0.1591536354358684</v>
+        <v>0.1642750631583346</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>420701</v>
+        <v>417133</v>
       </c>
       <c r="C12">
-        <v>0.1591536354358684</v>
+        <v>0.1642434438485577</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>419374</v>
+        <v>418469</v>
       </c>
       <c r="C13">
-        <v>0.1591536354358684</v>
+        <v>0.1641977907913753</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>425587</v>
+        <v>417593</v>
       </c>
       <c r="C14">
-        <v>0.1591536354358684</v>
+        <v>0.1641524098410864</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>424201</v>
+        <v>418048</v>
       </c>
       <c r="C15">
-        <v>0.1591536354358684</v>
+        <v>0.1641476213817512</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>426278</v>
+        <v>371312</v>
       </c>
       <c r="C16">
-        <v>0.1591536354358684</v>
+        <v>0.1639814513684472</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>423109</v>
+        <v>418404</v>
       </c>
       <c r="C17">
-        <v>0.1591536354358684</v>
+        <v>0.1639655799462829</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>421569</v>
+        <v>418050</v>
       </c>
       <c r="C18">
-        <v>0.1591536354358684</v>
+        <v>0.1637875742968044</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>425787</v>
+        <v>392049</v>
       </c>
       <c r="C19">
-        <v>0.1591536354358684</v>
+        <v>0.1637759565201848</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>424968</v>
+        <v>415458</v>
       </c>
       <c r="C20">
-        <v>0.1591536354358684</v>
+        <v>0.1631662021288028</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>420088</v>
+        <v>418236</v>
       </c>
       <c r="C21">
-        <v>0.1591536354358684</v>
+        <v>0.1629460778672743</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>386411</v>
+        <v>348081</v>
       </c>
       <c r="C22">
-        <v>0.1591536354358684</v>
+        <v>0.1627895839421536</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>420968</v>
+        <v>419477</v>
       </c>
       <c r="C23">
-        <v>0.1591536354358684</v>
+        <v>0.1626891083639612</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>420450</v>
+        <v>419573</v>
       </c>
       <c r="C24">
-        <v>0.1591536354358684</v>
+        <v>0.1606003701933462</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>417520</v>
+        <v>419658</v>
       </c>
       <c r="C25">
-        <v>0.1591536354358684</v>
+        <v>0.1605315059867829</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>419013</v>
+        <v>419669</v>
       </c>
       <c r="C26">
-        <v>0.1591536354358684</v>
+        <v>0.1605310551481633</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>419315</v>
+        <v>419754</v>
       </c>
       <c r="C27">
-        <v>0.1591536354358684</v>
+        <v>0.1605307264525439</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>422603</v>
+        <v>419833</v>
       </c>
       <c r="C28">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258622234</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>422113</v>
+        <v>419836</v>
       </c>
       <c r="C29">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258621818</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>419669</v>
+        <v>419841</v>
       </c>
       <c r="C30">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258619733</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>431227</v>
+        <v>419893</v>
       </c>
       <c r="C31">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618318</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>371312</v>
+        <v>423622</v>
       </c>
       <c r="C32">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>429003</v>
+        <v>424968</v>
       </c>
       <c r="C33">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>423053</v>
+        <v>426618</v>
       </c>
       <c r="C34">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>421968</v>
+        <v>421528</v>
       </c>
       <c r="C35">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>419836</v>
+        <v>423957</v>
       </c>
       <c r="C36">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>418852</v>
+        <v>420728</v>
       </c>
       <c r="C37">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>427927</v>
+        <v>423132</v>
       </c>
       <c r="C38">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>422881</v>
+        <v>424849</v>
       </c>
       <c r="C39">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B40">
-        <v>425755</v>
+        <v>420455</v>
       </c>
       <c r="C40">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B41">
-        <v>427646</v>
+        <v>422360</v>
       </c>
       <c r="C41">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>416450</v>
+        <v>425787</v>
       </c>
       <c r="C42">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>425621</v>
+        <v>424557</v>
       </c>
       <c r="C43">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B44">
-        <v>426618</v>
+        <v>424854</v>
       </c>
       <c r="C44">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>423957</v>
+        <v>427194</v>
       </c>
       <c r="C45">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>420728</v>
+        <v>424933</v>
       </c>
       <c r="C46">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>392049</v>
+        <v>423912</v>
       </c>
       <c r="C47">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B48">
-        <v>423132</v>
+        <v>421968</v>
       </c>
       <c r="C48">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>422360</v>
+        <v>424883</v>
       </c>
       <c r="C49">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>424854</v>
+        <v>423053</v>
       </c>
       <c r="C50">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>424933</v>
+        <v>429003</v>
       </c>
       <c r="C51">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B52">
-        <v>423912</v>
+        <v>428538</v>
       </c>
       <c r="C52">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>424883</v>
+        <v>431227</v>
       </c>
       <c r="C53">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B54">
-        <v>428538</v>
+        <v>427990</v>
       </c>
       <c r="C54">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B55">
-        <v>427990</v>
+        <v>425287</v>
       </c>
       <c r="C55">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>425287</v>
+        <v>423072</v>
       </c>
       <c r="C56">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B57">
-        <v>422950</v>
+        <v>425621</v>
       </c>
       <c r="C57">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B58">
-        <v>419383</v>
+        <v>421065</v>
       </c>
       <c r="C58">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B59">
-        <v>418740</v>
+        <v>421426</v>
       </c>
       <c r="C59">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>422029</v>
+        <v>424693</v>
       </c>
       <c r="C60">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>420623</v>
+        <v>422290</v>
       </c>
       <c r="C61">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B62">
-        <v>421808</v>
+        <v>421332</v>
       </c>
       <c r="C62">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B63">
-        <v>421426</v>
+        <v>422029</v>
       </c>
       <c r="C63">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B64">
-        <v>421214</v>
+        <v>425961</v>
       </c>
       <c r="C64">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B65">
-        <v>415458</v>
+        <v>427646</v>
       </c>
       <c r="C65">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B66">
-        <v>420230</v>
+        <v>422126</v>
       </c>
       <c r="C66">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B67">
-        <v>422126</v>
+        <v>420230</v>
       </c>
       <c r="C67">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B68">
-        <v>418050</v>
+        <v>422603</v>
       </c>
       <c r="C68">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B69">
-        <v>425961</v>
+        <v>421214</v>
       </c>
       <c r="C69">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B70">
-        <v>419658</v>
+        <v>421808</v>
       </c>
       <c r="C70">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B71">
-        <v>422290</v>
+        <v>420701</v>
       </c>
       <c r="C71">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B72">
-        <v>424693</v>
+        <v>420623</v>
       </c>
       <c r="C72">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B73">
-        <v>421065</v>
+        <v>422881</v>
       </c>
       <c r="C73">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B74">
-        <v>423622</v>
+        <v>420088</v>
       </c>
       <c r="C74">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B75">
-        <v>421332</v>
+        <v>427927</v>
       </c>
       <c r="C75">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B76">
-        <v>423241</v>
+        <v>421569</v>
       </c>
       <c r="C76">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B77">
-        <v>419893</v>
+        <v>423109</v>
       </c>
       <c r="C77">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B78">
-        <v>428439</v>
+        <v>426278</v>
       </c>
       <c r="C78">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B79">
-        <v>422953</v>
+        <v>424201</v>
       </c>
       <c r="C79">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B80">
-        <v>422721</v>
+        <v>425587</v>
       </c>
       <c r="C80">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B81">
-        <v>431255</v>
+        <v>422950</v>
       </c>
       <c r="C81">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B82">
-        <v>422084</v>
+        <v>422113</v>
       </c>
       <c r="C82">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B83">
-        <v>420684</v>
+        <v>420371</v>
       </c>
       <c r="C83">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B84">
-        <v>421762</v>
+        <v>421860</v>
       </c>
       <c r="C84">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B85">
-        <v>424940</v>
+        <v>420776</v>
       </c>
       <c r="C85">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B86">
-        <v>419186</v>
+        <v>426342</v>
       </c>
       <c r="C86">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B87">
-        <v>424333</v>
+        <v>420847</v>
       </c>
       <c r="C87">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B88">
-        <v>423760</v>
+        <v>424795</v>
       </c>
       <c r="C88">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B89">
-        <v>419754</v>
+        <v>421440</v>
       </c>
       <c r="C89">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B90">
-        <v>422763</v>
+        <v>423250</v>
       </c>
       <c r="C90">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B91">
-        <v>426752</v>
+        <v>424088</v>
       </c>
       <c r="C91">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B92">
         <v>423953</v>
       </c>
       <c r="C92">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B93">
-        <v>418458</v>
+        <v>426752</v>
       </c>
       <c r="C93">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B94">
-        <v>424088</v>
+        <v>422763</v>
       </c>
       <c r="C94">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B95">
-        <v>421222</v>
+        <v>423760</v>
       </c>
       <c r="C95">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B96">
-        <v>423873</v>
+        <v>424333</v>
       </c>
       <c r="C96">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B97">
-        <v>418469</v>
+        <v>424940</v>
       </c>
       <c r="C97">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B98">
-        <v>419573</v>
+        <v>421762</v>
       </c>
       <c r="C98">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B99">
-        <v>424600</v>
+        <v>420684</v>
       </c>
       <c r="C99">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B100">
-        <v>419477</v>
+        <v>422084</v>
       </c>
       <c r="C100">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B101">
-        <v>417488</v>
+        <v>431255</v>
       </c>
       <c r="C101">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B102">
-        <v>422840</v>
+        <v>422721</v>
       </c>
       <c r="C102">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B103">
-        <v>419841</v>
+        <v>421222</v>
       </c>
       <c r="C103">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B104">
-        <v>427326</v>
+        <v>422953</v>
       </c>
       <c r="C104">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B105">
-        <v>428138</v>
+        <v>423873</v>
       </c>
       <c r="C105">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B106">
-        <v>420215</v>
+        <v>427839</v>
       </c>
       <c r="C106">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B107">
-        <v>429002</v>
+        <v>422265</v>
       </c>
       <c r="C107">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B108">
-        <v>417649</v>
+        <v>430925</v>
       </c>
       <c r="C108">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B109">
-        <v>348081</v>
+        <v>429002</v>
       </c>
       <c r="C109">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B110">
-        <v>418404</v>
+        <v>420215</v>
       </c>
       <c r="C110">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B111">
-        <v>430925</v>
+        <v>428138</v>
       </c>
       <c r="C111">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B112">
-        <v>422265</v>
+        <v>427326</v>
       </c>
       <c r="C112">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B113">
-        <v>427839</v>
+        <v>422840</v>
       </c>
       <c r="C113">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B114">
-        <v>423250</v>
+        <v>424600</v>
       </c>
       <c r="C114">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B115">
-        <v>421440</v>
+        <v>425559</v>
       </c>
       <c r="C115">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B116">
-        <v>424795</v>
+        <v>420611</v>
       </c>
       <c r="C116">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B117">
-        <v>420847</v>
+        <v>425447</v>
       </c>
       <c r="C117">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B118">
-        <v>425447</v>
+        <v>426386</v>
       </c>
       <c r="C118">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B119">
-        <v>421377</v>
+        <v>425755</v>
       </c>
       <c r="C119">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B120">
-        <v>408316</v>
+        <v>428439</v>
       </c>
       <c r="C120">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B121">
-        <v>417660</v>
+        <v>426852</v>
       </c>
       <c r="C121">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B122">
-        <v>418048</v>
+        <v>425998</v>
       </c>
       <c r="C122">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B123">
-        <v>424453</v>
+        <v>420468</v>
       </c>
       <c r="C123">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B124">
-        <v>427058</v>
+        <v>425481</v>
       </c>
       <c r="C124">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B125">
-        <v>417593</v>
+        <v>425400</v>
       </c>
       <c r="C125">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B126">
-        <v>419035</v>
+        <v>427058</v>
       </c>
       <c r="C126">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B127">
-        <v>425400</v>
+        <v>424453</v>
       </c>
       <c r="C127">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B128">
-        <v>425481</v>
+        <v>421377</v>
       </c>
       <c r="C128">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B129">
-        <v>420468</v>
+        <v>420968</v>
       </c>
       <c r="C129">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B130">
-        <v>425998</v>
+        <v>420450</v>
       </c>
       <c r="C130">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B131">
-        <v>418236</v>
+        <v>423241</v>
       </c>
       <c r="C131">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B132">
-        <v>426852</v>
+        <v>426453</v>
       </c>
       <c r="C132">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B133">
-        <v>426386</v>
+        <v>421491</v>
       </c>
       <c r="C133">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B134">
-        <v>426453</v>
+        <v>423217</v>
       </c>
       <c r="C134">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B135">
-        <v>419833</v>
+        <v>422331</v>
       </c>
       <c r="C135">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B136">
-        <v>422331</v>
+        <v>423151</v>
       </c>
       <c r="C136">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B137">
-        <v>426342</v>
+        <v>424182</v>
       </c>
       <c r="C137">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B138">
-        <v>425559</v>
+        <v>422124</v>
       </c>
       <c r="C138">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B139">
-        <v>418773</v>
+        <v>421286</v>
       </c>
       <c r="C139">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B140">
-        <v>421860</v>
+        <v>420255</v>
       </c>
       <c r="C140">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B141">
-        <v>420776</v>
+        <v>420655</v>
       </c>
       <c r="C141">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B142">
-        <v>423217</v>
+        <v>423494</v>
       </c>
       <c r="C142">
-        <v>0.1591536354358684</v>
+        <v>0.1605307258618311</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B143">
-        <v>423151</v>
+        <v>419013</v>
       </c>
       <c r="C143">
-        <v>0.1591536354358684</v>
+        <v>0.159702967212272</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B144">
-        <v>421491</v>
+        <v>419315</v>
       </c>
       <c r="C144">
-        <v>0.1591536354358684</v>
+        <v>0.159136722852358</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B145">
-        <v>424182</v>
+        <v>418852</v>
       </c>
       <c r="C145">
-        <v>0.1591536354358684</v>
+        <v>0.154101536461974</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B146">
-        <v>422124</v>
+        <v>419035</v>
       </c>
       <c r="C146">
-        <v>0.1591536354358684</v>
+        <v>0.1534650315925227</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B147">
-        <v>421286</v>
+        <v>418780</v>
       </c>
       <c r="C147">
-        <v>0.1591536354358684</v>
+        <v>0.1473455529231608</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B148">
-        <v>420255</v>
+        <v>418773</v>
       </c>
       <c r="C148">
-        <v>0.1591536354358684</v>
+        <v>0.1446301344379594</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B149">
-        <v>420655</v>
+        <v>418740</v>
       </c>
       <c r="C149">
-        <v>0.1591536354358684</v>
+        <v>0.136611309028024</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B150">
-        <v>423494</v>
+        <v>419202</v>
       </c>
       <c r="C150">
-        <v>0.1591536354358684</v>
+        <v>0.1332827311792699</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B151">
-        <v>420611</v>
+        <v>419186</v>
       </c>
       <c r="C151">
-        <v>0.1591536354358684</v>
+        <v>0.1328971605720275</v>
       </c>
     </row>
   </sheetData>
